--- a/P&E/clase03x4.xlsx
+++ b/P&E/clase03x4.xlsx
@@ -1,25 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36178862-CD98-4E6C-8817-1888AD9C75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12210" yWindow="0" windowWidth="8190" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="PROMEDIO_VIDEO_3">Hoja1!$C$24</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>xf</t>
+  </si>
+  <si>
+    <t>(x-p)^2</t>
+  </si>
+  <si>
+    <t>(x-p)^2 * f</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p (promedio) = </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,7 +107,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +128,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AFFE164-D5BB-47FD-8CE1-B8F5B0C3C7FE}" name="Tabla1" displayName="Tabla1" ref="A15:E22" totalsRowCount="1">
+  <autoFilter ref="A15:E21" xr:uid="{6AFFE164-D5BB-47FD-8CE1-B8F5B0C3C7FE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1794485D-58FA-487B-897E-EAC49798744D}" name="x" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{4DFE73BF-C14D-4427-8A65-42FEC8AE9570}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{F85DED66-0BFB-4624-9478-87BF28690130}" name="xf" dataDxfId="2">
+      <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A869E359-42F3-4396-8F32-B4BF1DE1F7F9}" name="(x-p)^2" dataDxfId="1">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F7D3FEBC-7F87-4C3B-A25A-D7E1635669B3}" name="(x-p)^2 * f" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +412,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>52</v>
+      </c>
+      <c r="B1">
+        <v>55</v>
+      </c>
+      <c r="C1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>SUM(A1:C1)/COUNT(A1:C1)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A1-B3</f>
+        <v>-3</v>
+      </c>
+      <c r="B5">
+        <f>B1-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>C1-B3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>POWER(A5,2)</f>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:C6" si="0">POWER(B5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>SUM(A6:C6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B8/2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>SQRT(B11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>4.7669444444444453</v>
+      </c>
+      <c r="E16">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>1.4002777777777784</v>
+      </c>
+      <c r="E17">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>345</v>
+      </c>
+      <c r="D18">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>3.3611111111111196E-2</v>
+      </c>
+      <c r="E18">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>160</v>
+      </c>
+      <c r="D19">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>0.66694444444444401</v>
+      </c>
+      <c r="E19">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>3.3002777777777768</v>
+      </c>
+      <c r="E20">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</f>
+        <v>72</v>
+      </c>
+      <c r="D21">
+        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <v>7.9336111111111096</v>
+      </c>
+      <c r="E21">
+        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <f>SUBTOTAL(109,Tabla1[f])</f>
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <f ca="1">SUBTOTAL(109,Tabla1[(x-p)^2 * f])</f>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <f ca="1">Tabla1[[#Totals],[(x-p)^2 * f]]/Tabla1[[#Totals],[f]]</f>
+        <v>15.183333333333334</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/P&E/clase03x4.xlsx
+++ b/P&E/clase03x4.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36178862-CD98-4E6C-8817-1888AD9C75E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF14B948-48E9-40B5-A1EF-9A4C1A98437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="0" windowWidth="8190" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PROMEDIO_VIDEO_3">Hoja1!$C$24</definedName>
+    <definedName name="PROMEDIO_VIDEO_3">Hoja1!$D$24</definedName>
+    <definedName name="PromedioV4">Hoja1!$D$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>x</t>
   </si>
@@ -66,16 +67,50 @@
   </si>
   <si>
     <t xml:space="preserve">p (promedio) = </t>
+  </si>
+  <si>
+    <t>varianza =</t>
+  </si>
+  <si>
+    <t>desviación estándar =</t>
+  </si>
+  <si>
+    <t>coeficiente de variación =</t>
+  </si>
+  <si>
+    <t>en porcentaje =</t>
+  </si>
+  <si>
+    <t>MUESTRA</t>
+  </si>
+  <si>
+    <t>POBLACIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +136,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -136,14 +182,34 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1794485D-58FA-487B-897E-EAC49798744D}" name="x" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{4DFE73BF-C14D-4427-8A65-42FEC8AE9570}" name="f" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{F85DED66-0BFB-4624-9478-87BF28690130}" name="xf" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{F85DED66-0BFB-4624-9478-87BF28690130}" name="xf" totalsRowFunction="sum" dataDxfId="5">
       <calculatedColumnFormula>Tabla1[[#This Row],[x]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A869E359-42F3-4396-8F32-B4BF1DE1F7F9}" name="(x-p)^2" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{A869E359-42F3-4396-8F32-B4BF1DE1F7F9}" name="(x-p)^2" dataDxfId="4">
       <calculatedColumnFormula>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F7D3FEBC-7F87-4C3B-A25A-D7E1635669B3}" name="(x-p)^2 * f" totalsRowFunction="sum" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{F7D3FEBC-7F87-4C3B-A25A-D7E1635669B3}" name="(x-p)^2 * f" totalsRowFunction="sum" dataDxfId="3">
       <calculatedColumnFormula>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D316F92-7DDA-48A9-BD01-1B960A30D0D9}" name="Tabla13" displayName="Tabla13" ref="A36:E40" totalsRowCount="1">
+  <autoFilter ref="A36:E39" xr:uid="{4D316F92-7DDA-48A9-BD01-1B960A30D0D9}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{60729419-9D35-4CB5-835C-C52900D4022C}" name="x" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{82334761-8398-4347-9F2C-A03F6579D0FC}" name="f" totalsRowFunction="sum"/>
+    <tableColumn id="3" xr3:uid="{D0704D1E-19E7-4067-A3E7-05B082AABD3D}" name="xf" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula>Tabla13[[#This Row],[x]]*Tabla13[[#This Row],[f]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{40CA6538-CEB4-4809-8E74-BEC6C2070456}" name="(x-p)^2" dataDxfId="0">
+      <calculatedColumnFormula>ROUND((Tabla13[[#This Row],[x]]-PromedioV4)^2,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{786180D9-05B7-433A-90EA-7B41011753FC}" name="(x-p)^2 * f" totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula>Tabla13[[#This Row],[(x-p)^2]]*Tabla13[[#This Row],[f]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -413,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +568,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
@@ -531,12 +602,12 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>4.7669444444444453</v>
       </c>
       <c r="E16">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>14.300833333333337</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,12 +622,12 @@
         <v>210</v>
       </c>
       <c r="D17">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>1.4002777777777784</v>
       </c>
       <c r="E17">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>21.004166666666677</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,12 +642,12 @@
         <v>345</v>
       </c>
       <c r="D18">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>3.3611111111111196E-2</v>
       </c>
       <c r="E18">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>0.77305555555555749</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,12 +662,12 @@
         <v>160</v>
       </c>
       <c r="D19">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>0.66694444444444401</v>
       </c>
       <c r="E19">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>6.6694444444444398</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,12 +682,12 @@
         <v>85</v>
       </c>
       <c r="D20">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>3.3002777777777768</v>
       </c>
       <c r="E20">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>16.501388888888883</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,12 +702,12 @@
         <v>72</v>
       </c>
       <c r="D21">
-        <f ca="1">(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
+        <f>(Tabla1[[#This Row],[x]]-PROMEDIO_VIDEO_3)^2</f>
         <v>7.9336111111111096</v>
       </c>
       <c r="E21">
-        <f ca="1">Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
-        <v>0</v>
+        <f>Tabla1[[#This Row],[(x-p)^2]]*Tabla1[[#This Row],[f]]</f>
+        <v>31.734444444444438</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -647,24 +718,232 @@
         <f>SUBTOTAL(109,Tabla1[f])</f>
         <v>60</v>
       </c>
+      <c r="C22">
+        <f>SUBTOTAL(109,Tabla1[xf])</f>
+        <v>911</v>
+      </c>
       <c r="E22">
-        <f ca="1">SUBTOTAL(109,Tabla1[(x-p)^2 * f])</f>
-        <v>911</v>
+        <f>SUBTOTAL(109,Tabla1[(x-p)^2 * f])</f>
+        <v>90.983333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="C24">
-        <f ca="1">Tabla1[[#Totals],[(x-p)^2 * f]]/Tabla1[[#Totals],[f]]</f>
+      <c r="D24">
+        <f>Tabla1[[#Totals],[xf]]/Tabla1[[#Totals],[f]]</f>
         <v>15.183333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <f>Tabla1[[#Totals],[(x-p)^2 * f]]/Tabla1[[#Totals],[f]]</f>
+        <v>1.516388888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f>SQRT(D26)</f>
+        <v>1.2314174308043917</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <f>D28/PROMEDIO_VIDEO_3</f>
+        <v>8.1103233642440722E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <f>D30*100</f>
+        <v>8.1103233642440724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <f>Tabla13[[#This Row],[x]]*Tabla13[[#This Row],[f]]</f>
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <f>ROUND((Tabla13[[#This Row],[x]]-PromedioV4)^2,2)</f>
+        <v>0.74</v>
+      </c>
+      <c r="E37">
+        <f>Tabla13[[#This Row],[(x-p)^2]]*Tabla13[[#This Row],[f]]</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>Tabla13[[#This Row],[x]]*Tabla13[[#This Row],[f]]</f>
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <f>ROUND((Tabla13[[#This Row],[x]]-PromedioV4)^2,2)</f>
+        <v>0.02</v>
+      </c>
+      <c r="E38">
+        <f>Tabla13[[#This Row],[(x-p)^2]]*Tabla13[[#This Row],[f]]</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <f>Tabla13[[#This Row],[x]]*Tabla13[[#This Row],[f]]</f>
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <f>ROUND((Tabla13[[#This Row],[x]]-PromedioV4)^2,2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E39">
+        <f>Tabla13[[#This Row],[(x-p)^2]]*Tabla13[[#This Row],[f]]</f>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <f>SUBTOTAL(109,Tabla13[f])</f>
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <f>SUBTOTAL(109,Tabla13[xf])</f>
+        <v>152</v>
+      </c>
+      <c r="E40">
+        <f>SUBTOTAL(109,Tabla13[(x-p)^2 * f])</f>
+        <v>7.7200000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f>ROUND(Tabla13[[#Totals],[xf]]/Tabla13[[#Totals],[f]],2)</f>
+        <v>10.86</v>
+      </c>
+      <c r="E42" s="1">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <f>ROUND(Tabla13[[#Totals],[(x-p)^2 * f]]/(Tabla13[[#Totals],[f]]-1),2)</f>
+        <v>0.59</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f>ROUND(SQRT(D44),3)</f>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <f>D46/PromedioV4</f>
+        <v>7.07182320441989E-2</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <f>ROUND(D48*100,2)</f>
+        <v>7.07</v>
+      </c>
+      <c r="E49" s="1">
+        <v>7.07</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>